--- a/biology/Médecine/1528_en_santé_et_médecine/1528_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1528_en_santé_et_médecine/1528_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1528_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1528_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1528 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1528_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1528_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le grand hôpital de Lausanne, fondé en 1282 par Guillaume de Champvent[1], passe sous l'autorité des bourgeois de la ville[2].
-Une aumônerie ou maison-Dieu est attestée hors les murs de Bressuire, en Poitou, sur l'actuel boulevard du Guédeau[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le grand hôpital de Lausanne, fondé en 1282 par Guillaume de Champvent, passe sous l'autorité des bourgeois de la ville.
+Une aumônerie ou maison-Dieu est attestée hors les murs de Bressuire, en Poitou, sur l'actuel boulevard du Guédeau.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1528_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1528_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Première édition, chez Thomas Berthelet à Londres, de la traduction anglaise par Thomas Paynell (fl. 1528-1567) du Regimen sanitatis Salerni[4].
-Publication par Johanes Stockers, médecin à Ulm, sous le titre de Praxis aurea, d'un ouvrage où l'auteur décrit un amalgame qui « durcit comme la pierre dans un trou de la dent[5] ».
-Dans la controverse sur le traitement de la pleurésie, Andrea Turini (1473-c.1550) publie à Paris, chez Josse Bade, son De vena in curatione pleuritidos incidenda (« De la saignée dans le traitement de la pleurésie »), où il défend la saignée « dérivative », selon la méthode arabe, contre les partisans d'Hippocrate et de la saignée « révulsive », comme Pierre Brissot (1478-1522) ou Giovanni Manardo (1462-1536) [6],[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Première édition, chez Thomas Berthelet à Londres, de la traduction anglaise par Thomas Paynell (fl. 1528-1567) du Regimen sanitatis Salerni.
+Publication par Johanes Stockers, médecin à Ulm, sous le titre de Praxis aurea, d'un ouvrage où l'auteur décrit un amalgame qui « durcit comme la pierre dans un trou de la dent ».
+Dans la controverse sur le traitement de la pleurésie, Andrea Turini (1473-c.1550) publie à Paris, chez Josse Bade, son De vena in curatione pleuritidos incidenda (« De la saignée dans le traitement de la pleurésie »), où il défend la saignée « dérivative », selon la méthode arabe, contre les partisans d'Hippocrate et de la saignée « révulsive », comme Pierre Brissot (1478-1522) ou Giovanni Manardo (1462-1536) ,.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1528_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1528_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1528-1567 : fl. Thomas Paynell, traducteur du latin en anglais de divers ouvrages, dont au moins trois concernent la médecine : le Regimen sanitatis Salerni (1528), le De morbo gallico, d'Ulrich von Hutten (1533) et A Much Profitable Treatise Against the Pestilence (1534[4]).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1528-1567 : fl. Thomas Paynell, traducteur du latin en anglais de divers ouvrages, dont au moins trois concernent la médecine : le Regimen sanitatis Salerni (1528), le De morbo gallico, d'Ulrich von Hutten (1533) et A Much Profitable Treatise Against the Pestilence (1534).</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1528_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1528_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,10 +622,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Anuce Foës (mort en 1595), médecin et helléniste messin, traducteur et éditeur des œuvres complètes d'Hippocrate[8],[9].
-Adam Lonitzer (mort en 1586), botaniste, naturaliste et médecin allemand[8],[10].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Anuce Foës (mort en 1595), médecin et helléniste messin, traducteur et éditeur des œuvres complètes d'Hippocrate,.
+Adam Lonitzer (mort en 1586), botaniste, naturaliste et médecin allemand,.</t>
         </is>
       </c>
     </row>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1528_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1528_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,9 +655,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Vers 1528 : Antonio Gazio (hu) (né vers 1461), médecin à la cour de Pologne[11], auteur d'un régime de santé intitulé Florida corona (la « couronne fleurie »), imprimé pour la première fois à Venise en 1491 chez Giovanni et Gregorio De Gregori[12].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Vers 1528 : Antonio Gazio (hu) (né vers 1461), médecin à la cour de Pologne, auteur d'un régime de santé intitulé Florida corona (la « couronne fleurie »), imprimé pour la première fois à Venise en 1491 chez Giovanni et Gregorio De Gregori.</t>
         </is>
       </c>
     </row>
